--- a/zlecenie 13.xlsx
+++ b/zlecenie 13.xlsx
@@ -307,8 +307,8 @@
       <c r="C2" s="1">
         <v>20.0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
+      <c r="D2" s="1" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
